--- a/06-03-2023/data/output/xlsx/Causality for Text-to-Final correct/5.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Text-to-Final correct/5.xlsx
@@ -49,21 +49,18 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
+    <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_equals__7,num_of_equals__8,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_unknowns__3,num_of_unknowns__4,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_unknowns__4,num_of_unknowns__5,pairs_of_parentheses__4</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
@@ -76,18 +73,18 @@
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__7,num_of_equals__7,num_of_equals__8</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__6,num_of_equals__7,num_of_equals__8</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__8,num_of_equals__8,num_of_equals__9</t>
   </si>
   <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__7,num_of_equals__8,num_of_equals__9</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
@@ -118,72 +115,72 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,pairs_of_parentheses__3</t>
-  </si>
-  <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4</t>
   </si>
   <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4</t>
   </si>
   <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4</t>
   </si>
   <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4</t>
   </si>
   <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4</t>
   </si>
   <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11</t>
   </si>
   <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11</t>
   </si>
   <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11</t>
   </si>
   <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10</t>
+  </si>
+  <si>
     <t>num_of_decimals__12</t>
   </si>
   <si>
@@ -238,7 +235,7 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
@@ -262,18 +259,18 @@
     <t>num_of_equals__7</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_equals__8,num_of_unknowns__3,num_of_unknowns__4</t>
-  </si>
-  <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_equals__7</t>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__9,num_of_unknowns__4,num_of_unknowns__5</t>
   </si>
   <si>
     <t>num_of_equals__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_equals__8</t>
+  </si>
+  <si>
     <t>num_of_equals__10</t>
   </si>
   <si>
@@ -286,33 +283,33 @@
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,pairs_of_parentheses__3</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__2,num_of_mults_and_divs__3,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__3,pairs_of_parentheses__3</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2</t>
+    <t>num_of_adds_and_subs__2,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,pairs_of_parentheses__4</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
@@ -340,7 +337,7 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
@@ -352,18 +349,18 @@
     <t>num_of_unknowns__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_equals__7,num_of_unknowns__4</t>
-  </si>
-  <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_equals__7,num_of_unknowns__3</t>
+    <t>num_of_adds_and_subs__2,num_of_equals__8,num_of_unknowns__5</t>
   </si>
   <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_equals__8,num_of_unknowns__4</t>
+  </si>
+  <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
@@ -385,7 +382,7 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
@@ -397,12 +394,12 @@
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1,num_of_decimals__1,num_of_mults_and_divs__0,num_of_mults_and_divs__1,num_of_mults_and_divs__2</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__2,num_of_decimals__2,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
@@ -431,6 +428,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>
